--- a/app/www/DetailsTrcs.xlsx
+++ b/app/www/DetailsTrcs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TECHNIQUE\Thèses\Victor\Interface\Texte interface\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e64653\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="135" windowWidth="21105" windowHeight="4170"/>
+    <workbookView xWindow="180" yWindow="140" windowWidth="21110" windowHeight="4170"/>
   </bookViews>
   <sheets>
     <sheet name="RecapSta" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="120">
   <si>
     <t>Adour</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Cours d'eau</t>
   </si>
   <si>
-    <t>Influence</t>
-  </si>
-  <si>
     <t>TCC</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>TRUY</t>
   </si>
   <si>
-    <t>Pente</t>
-  </si>
-  <si>
     <t>Taute</t>
   </si>
   <si>
@@ -288,9 +282,6 @@
     <t>Moulin de Kerloc'h</t>
   </si>
   <si>
-    <t>Altitude</t>
-  </si>
-  <si>
     <t>Nom station</t>
   </si>
   <si>
@@ -363,13 +354,34 @@
     <t>EDF</t>
   </si>
   <si>
-    <t>AFB</t>
-  </si>
-  <si>
-    <t>EDF/Irstea</t>
-  </si>
-  <si>
     <t>Maître ouvrage pêche</t>
+  </si>
+  <si>
+    <t>Influence hydrologique</t>
+  </si>
+  <si>
+    <t>Pente (%)</t>
+  </si>
+  <si>
+    <t>Altitude (m)</t>
+  </si>
+  <si>
+    <t>Q50</t>
+  </si>
+  <si>
+    <t>Tronçon court-cirtuité</t>
+  </si>
+  <si>
+    <t>Tronçon non régulé</t>
+  </si>
+  <si>
+    <t>Débit médian</t>
+  </si>
+  <si>
+    <t>OFB</t>
+  </si>
+  <si>
+    <t>EDF/INRAE</t>
   </si>
 </sst>
 </file>
@@ -380,7 +392,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +576,12 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1280,7 +1298,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1493,6 +1511,13 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="175">
@@ -1972,90 +1997,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="12.54296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7265625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.1796875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="42" t="s">
+      <c r="O1" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="43" t="s">
+      <c r="Q1" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="44" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>1</v>
@@ -2064,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="72" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F2" s="46">
         <v>0.20877999999999999</v>
@@ -2106,9 +2131,9 @@
         <v>8.68</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>2</v>
@@ -2117,10 +2142,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F3" s="48">
         <v>0.21137707444152901</v>
@@ -2159,9 +2184,9 @@
         <v>7.08</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>3</v>
@@ -2170,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F4" s="50">
         <v>0.27338000000000001</v>
@@ -2212,9 +2237,9 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>4</v>
@@ -2223,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F5" s="50">
         <v>0.24490999999999999</v>
@@ -2265,9 +2290,9 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>5</v>
@@ -2276,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F6" s="50">
         <v>0.23211999999999999</v>
@@ -2318,9 +2343,9 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>6</v>
@@ -2329,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F7" s="48">
         <v>0.202174876064106</v>
@@ -2371,7 +2396,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
@@ -2382,10 +2407,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F8" s="48">
         <v>2.2012116596326101</v>
@@ -2424,21 +2449,21 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>42</v>
-      </c>
       <c r="E9" s="74" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F9" s="48">
         <v>6.26048470718366</v>
@@ -2477,21 +2502,21 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>44</v>
-      </c>
       <c r="C10" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="74" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F10" s="48">
         <v>3.7392176452744299</v>
@@ -2530,7 +2555,7 @@
         <v>8.69</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>19</v>
       </c>
@@ -2538,13 +2563,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F11" s="48">
         <v>0.36322885131579202</v>
@@ -2583,7 +2608,7 @@
         <v>9.24</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>21</v>
       </c>
@@ -2591,13 +2616,13 @@
         <v>22</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F12" s="48">
         <v>0.37168000531948597</v>
@@ -2636,21 +2661,21 @@
         <v>9.24</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F13" s="48">
         <v>0.37632812151341599</v>
@@ -2689,21 +2714,21 @@
         <v>9.24</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F14" s="48">
         <v>3.7049894831450798</v>
@@ -2742,21 +2767,21 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F15" s="48">
         <v>6.6794130000000003</v>
@@ -2795,21 +2820,21 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="C16" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="64" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F16" s="48">
         <v>3.0015874940983598</v>
@@ -2848,21 +2873,21 @@
         <v>8.11</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="C17" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F17" s="48">
         <v>3.4915476095733902</v>
@@ -2901,21 +2926,21 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D18" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F18" s="48">
         <v>2.927324</v>
@@ -2954,21 +2979,21 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D19" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F19" s="50">
         <v>-0.14959</v>
@@ -3007,21 +3032,21 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F20" s="50">
         <v>-0.13313</v>
@@ -3060,21 +3085,21 @@
         <v>9.39</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D21" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F21" s="50">
         <v>-0.10481</v>
@@ -3113,21 +3138,21 @@
         <v>9.39</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D22" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F22" s="50">
         <v>-0.18819</v>
@@ -3166,7 +3191,7 @@
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>11</v>
       </c>
@@ -3174,13 +3199,13 @@
         <v>12</v>
       </c>
       <c r="C23" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="73" t="s">
         <v>109</v>
-      </c>
-      <c r="D23" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="73" t="s">
-        <v>112</v>
       </c>
       <c r="F23" s="50">
         <v>1.315E-2</v>
@@ -3219,21 +3244,21 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="73" t="s">
         <v>109</v>
-      </c>
-      <c r="D24" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="73" t="s">
-        <v>112</v>
       </c>
       <c r="F24" s="50">
         <v>1.5E-3</v>
@@ -3272,21 +3297,21 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="73" t="s">
         <v>109</v>
-      </c>
-      <c r="D25" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="73" t="s">
-        <v>112</v>
       </c>
       <c r="F25" s="50">
         <v>1.7739999999999999E-2</v>
@@ -3325,7 +3350,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>28</v>
       </c>
@@ -3333,13 +3358,13 @@
         <v>29</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F26" s="48">
         <v>3.8955778635157001</v>
@@ -3378,21 +3403,21 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D27" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F27" s="48">
         <v>3.9347471699835399</v>
@@ -3431,7 +3456,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>31</v>
       </c>
@@ -3439,13 +3464,13 @@
         <v>32</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D28" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F28" s="48">
         <v>3.9715196462772901</v>
@@ -3484,21 +3509,21 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D29" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F29" s="48">
         <v>-4.2188610000000004</v>
@@ -3537,21 +3562,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F30" s="50">
         <v>0.51800000000000002</v>
@@ -3590,21 +3615,21 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F31" s="50">
         <v>0.54044999999999999</v>
@@ -3643,7 +3668,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>35</v>
       </c>
@@ -3651,13 +3676,13 @@
         <v>36</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D32" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F32" s="50">
         <v>0.54825999999999997</v>
@@ -3696,21 +3721,21 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>56</v>
-      </c>
       <c r="C33" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33" s="64" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F33" s="48">
         <v>2.0385711988576101</v>
@@ -3749,9 +3774,9 @@
         <v>8.5299999999999994</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>25</v>
@@ -3760,10 +3785,10 @@
         <v>24</v>
       </c>
       <c r="D34" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" s="63" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F34" s="48">
         <v>5.8565719123681799</v>
@@ -3802,7 +3827,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
         <v>26</v>
       </c>
@@ -3813,10 +3838,10 @@
         <v>24</v>
       </c>
       <c r="D35" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" s="63" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F35" s="48">
         <v>5.8567</v>
@@ -3855,21 +3880,21 @@
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>59</v>
-      </c>
       <c r="C36" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E36" s="64" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F36" s="48">
         <v>3.6545313373683999</v>
@@ -3908,21 +3933,21 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E37" s="63" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F37" s="50">
         <v>0.30947000000000002</v>
@@ -3961,21 +3986,21 @@
         <v>7.73</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D38" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F38" s="52">
         <v>-1.4005799999999999</v>
@@ -4014,21 +4039,21 @@
         <v>11.26</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="31" t="s">
-        <v>61</v>
-      </c>
       <c r="C39" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E39" s="66" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F39" s="48">
         <v>2.38447582566116</v>
@@ -4067,21 +4092,21 @@
         <v>6.77</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40" s="65" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F40" s="48">
         <v>-3.0880700000000001</v>
@@ -4120,21 +4145,21 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="7" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="32" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D41" s="71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E41" s="67" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F41" s="54">
         <v>3.5252053654750601</v>
@@ -4171,6 +4196,30 @@
       </c>
       <c r="Q41" s="38">
         <v>6.56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A45" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="76" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
